--- a/OtherFiles/Tables/TextTable.xlsx
+++ b/OtherFiles/Tables/TextTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">النص الأصلي</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">ما الذي تتكلم عنه؟!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please watch for falling rocks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احذروا من الأحجار المتساقطة.</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,6 +242,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -318,11 +328,11 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.39"/>
@@ -409,7 +419,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
